--- a/Test Cases - QUẢN LÝ KÝ TÚC XÁ.xlsx
+++ b/Test Cases - QUẢN LÝ KÝ TÚC XÁ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vietn\Downloads\GROUPPROJECT-KTX(DOC)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B248BDC9-F4C6-4388-95C6-4522164D7B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485984B-78CB-46E9-AB37-51858EE75AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{371DFCBB-7E36-4B3C-AED9-71F99BBC47FF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{371DFCBB-7E36-4B3C-AED9-71F99BBC47FF}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST CASES - ĐĂNG NHẬP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="TEST CASE - QUẢN LÝ TÀI KHOẢN " sheetId="6" r:id="rId5"/>
     <sheet name="TEST CASE - QUẢN LÝ SINH VIÊN" sheetId="7" r:id="rId6"/>
     <sheet name="TEST CASE - QUẢN LÝ HÓA ĐƠN" sheetId="8" r:id="rId7"/>
-    <sheet name="Trang_tính1" sheetId="9" r:id="rId8"/>
+    <sheet name="TEST CASE - BÁO CÁO THỐNG KÊ" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>TC_01</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Đăng nhập với tư cách quản trị viên</t>
   </si>
   <si>
     <t>hợp lệ</t>
@@ -101,60 +95,12 @@
 3. Nhấn "Đăng nhập".</t>
   </si>
   <si>
-    <t xml:space="preserve"> username: admin
-password: admin
-</t>
-  </si>
-  <si>
-    <t>username: admin
-password:asdads</t>
-  </si>
-  <si>
-    <t>Hệ thống hiển thị thông báo lỗi: "Sai tài khoản hoặc mật khẩu".</t>
-  </si>
-  <si>
     <t>TC_03</t>
   </si>
   <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Đăng nhập với tư cách quản lý ktx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> username:manager1
-password: 1234567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hệ thống hiển thị thông báo "Đăng nhập thành công".
-và chuyển đến trang chủ </t>
-  </si>
-  <si>
-    <t>Hệ thống hiển thị thông báo "Đăng nhập thành công".
-và chuyển đến trang chủ</t>
-  </si>
-  <si>
     <t>TC_05</t>
   </si>
   <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>Đăng nhập với tư cách nhân viên trực ban</t>
-  </si>
-  <si>
-    <t>username: manager1
-password: 123465645</t>
-  </si>
-  <si>
-    <t>username: employee1
-password: 12345</t>
-  </si>
-  <si>
-    <t>username: employee1
-password: 324234</t>
-  </si>
-  <si>
     <t>TC_07</t>
   </si>
   <si>
@@ -162,10 +108,6 @@
   </si>
   <si>
     <t>Đăng nhập với tư cách sinh viên</t>
-  </si>
-  <si>
-    <t>username: student1
-password: 1234567</t>
   </si>
   <si>
     <t>username: student1
@@ -529,6 +471,36 @@
   </si>
   <si>
     <t>vietnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> username:MANAGER
+password:MANAGER</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng đến trang chủ</t>
+  </si>
+  <si>
+    <t>Hệ thống chuyển hướng đến trang chủ của khách</t>
+  </si>
+  <si>
+    <t>Đăng nhập với tư cách quản lý ký túc xá</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi: "Đăng nhập thất bại. Vui lòng kiểm tra lại thông tin.".</t>
+  </si>
+  <si>
+    <t>username: MANAGER
+password:MANAGER1</t>
+  </si>
+  <si>
+    <t>username: student1
+password: 123456789</t>
   </si>
 </sst>
 </file>
@@ -844,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -928,9 +900,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,9 +954,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -987,36 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF46D781-575F-4F73-B2B2-B4062D8D6CA3}">
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1329,7 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -1376,47 +1342,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
@@ -1433,310 +1399,226 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="31">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="31">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="58">
+      <c r="F5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="31">
         <v>45726</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="31">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="58">
+      <c r="D7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="31">
         <v>45726</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" s="58">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="58">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="58">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" s="58">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="58">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="58">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="58">
-        <v>45726</v>
-      </c>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -3935,73 +3817,19 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4012,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12BD6A0-5EBE-41EA-BA90-1E9C638885BB}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,47 +3857,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
@@ -4088,110 +3916,110 @@
     </row>
     <row r="3" spans="1:13" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="37"/>
       <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="37"/>
       <c r="E4" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="37"/>
       <c r="C5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="37"/>
       <c r="E5" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="33"/>
+        <v>39</v>
+      </c>
+      <c r="B6" s="37"/>
       <c r="C6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="37"/>
       <c r="E6" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="38"/>
       <c r="E7" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4221,47 +4049,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
@@ -4280,23 +4108,23 @@
     </row>
     <row r="3" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -4309,21 +4137,21 @@
     </row>
     <row r="4" spans="1:13" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="42"/>
       <c r="C4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="D4" s="42"/>
       <c r="E4" s="12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
@@ -4336,19 +4164,19 @@
     </row>
     <row r="5" spans="1:13" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
@@ -4361,21 +4189,21 @@
     </row>
     <row r="6" spans="1:13" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="42"/>
       <c r="E6" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
@@ -4388,19 +4216,19 @@
     </row>
     <row r="7" spans="1:13" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="39"/>
+        <v>43</v>
+      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="D7" s="43"/>
       <c r="E7" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
@@ -4413,17 +4241,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4433,8 +4261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7B946C-E436-4278-ADCA-B654D67A6409}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4447,50 +4275,55 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
@@ -4509,25 +4342,25 @@
     </row>
     <row r="3" spans="1:13" ht="109.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4538,19 +4371,19 @@
     </row>
     <row r="4" spans="1:13" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="51"/>
       <c r="C4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="48"/>
+        <v>66</v>
+      </c>
+      <c r="D4" s="56"/>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4561,25 +4394,25 @@
     </row>
     <row r="5" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>90</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4590,19 +4423,19 @@
     </row>
     <row r="6" spans="1:13" ht="101.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="B6" s="52"/>
       <c r="C6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="48"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="56"/>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4613,23 +4446,23 @@
     </row>
     <row r="7" spans="1:13" ht="111" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4640,19 +4473,19 @@
     </row>
     <row r="8" spans="1:13" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>43</v>
+      </c>
+      <c r="B8" s="54"/>
       <c r="C8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="48"/>
+        <v>66</v>
+      </c>
+      <c r="D8" s="56"/>
       <c r="E8" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -4663,23 +4496,23 @@
     </row>
     <row r="9" spans="1:13" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -4690,19 +4523,19 @@
     </row>
     <row r="10" spans="1:13" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="49"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="D10" s="49"/>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="17" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4713,11 +4546,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="H1:H2"/>
@@ -4730,6 +4558,11 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4752,47 +4585,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
@@ -4810,24 +4643,24 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>36</v>
+      <c r="A3" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -4839,16 +4672,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="39"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
@@ -4860,20 +4693,20 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="80.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>37</v>
+      <c r="A5" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="37" t="s">
-        <v>99</v>
+      <c r="C5" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="37" t="s">
-        <v>101</v>
+      <c r="E5" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
@@ -4885,14 +4718,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="89.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
@@ -4904,20 +4737,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>41</v>
+      <c r="A7" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="37" t="s">
-        <v>106</v>
+      <c r="C7" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="37" t="s">
-        <v>107</v>
+      <c r="E7" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
@@ -4929,14 +4762,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
@@ -4949,19 +4782,19 @@
     </row>
     <row r="9" spans="1:13" ht="133.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="25" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26"/>
@@ -4988,13 +4821,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -5006,6 +4832,13 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5015,7 +4848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C82C4FF-53BB-4EC0-9CB4-B36156219EB1}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5028,39 +4861,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
@@ -5078,18 +4911,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="104.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>115</v>
+      <c r="A3" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>112</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
@@ -5101,14 +4934,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
@@ -5120,16 +4953,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>116</v>
+      <c r="A5" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="37" t="s">
-        <v>117</v>
+      <c r="C5" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
@@ -5141,12 +4974,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
@@ -5194,47 +5027,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
@@ -5252,24 +5085,24 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>36</v>
+      <c r="A3" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>107</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
@@ -5281,16 +5114,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="39"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
@@ -5302,20 +5135,20 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>37</v>
+      <c r="A5" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="37" t="s">
-        <v>99</v>
+      <c r="C5" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="37" t="s">
-        <v>101</v>
+      <c r="E5" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
@@ -5327,14 +5160,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
@@ -5346,20 +5179,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>41</v>
+      <c r="A7" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="37" t="s">
-        <v>106</v>
+      <c r="C7" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="37" t="s">
-        <v>107</v>
+      <c r="E7" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
@@ -5371,14 +5204,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
@@ -5391,6 +5224,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -5404,11 +5242,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5418,7 +5251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5251C1F7-21C8-4945-9DEA-342206160292}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
